--- a/data/trans_orig/Q15_1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q15_1-Provincia-trans_orig.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,11; 0,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,07; 0,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,1; 0,18</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,14</t>
+          <t>0,08; 0,14</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,22</t>
+          <t>0,04; 0,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,18</t>
+          <t>0,08; 0,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,17</t>
+          <t>0,07; 0,18</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,17</t>
+          <t>0,07; 0,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,07</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,16</t>
+          <t>0,06; 0,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,11</t>
+          <t>0,03; 0,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,09</t>
+          <t>0,02; 0,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,12</t>
+          <t>0,05; 0,11</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,15</t>
+          <t>0,04; 0,14</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,09</t>
+          <t>0,02; 0,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,02</t>
+          <t>0,0; 0,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1511,47 +1511,47 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>0,09</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>0,04</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>0,09</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
         <is>
           <t>0,04</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>0,06</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>0,04</t>
-        </is>
-      </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,12</t>
+          <t>0,06; 0,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,14</t>
+          <t>0,04; 0,13</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,13</t>
+          <t>0,05; 0,12</t>
         </is>
       </c>
     </row>
@@ -1651,47 +1651,47 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
           <t>0,04</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
+      <c r="K18" s="2" t="inlineStr">
         <is>
           <t>0,07</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
         <is>
           <t>0,03</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>0,04</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>0,04</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>0,04</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>0,04</t>
         </is>
       </c>
     </row>
@@ -1719,47 +1719,47 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>0,01; 0,05</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 0,1</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 0,09</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
           <t>0,02; 0,05</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 0,1</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 0,09</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 0,06</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 0,09</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 0,06</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 0,05</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
         <is>
           <t>0,02; 0,05</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 0,06</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 0,09</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 0,06</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 0,05</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 0,05</t>
         </is>
       </c>
     </row>
@@ -1791,27 +1791,27 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
           <t>0,08</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>0,06</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">

--- a/data/trans_orig/Q15_1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q15_1-Provincia-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de accidentes en los últimos 12 meses</t>
+          <t>Número medio de accidentes en los últimos 12 meses</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,19 +724,19 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,05; 0,12</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 0,22</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>0,04; 0,11</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 0,22</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,04; 0,1</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
           <t>0,06; 0,15</t>
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,16</t>
+          <t>0,07; 0,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,16</t>
+          <t>0,09; 0,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,1</t>
+          <t>0,05; 0,09</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,18</t>
+          <t>0,11; 0,18</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,27 +864,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,12</t>
+          <t>0,03; 0,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,1</t>
+          <t>0,05; 0,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,07</t>
+          <t>0,02; 0,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,23</t>
+          <t>0,05; 0,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,06</t>
+          <t>0,02; 0,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -914,19 +914,19 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,05</t>
+          <t>0,03; 0,05</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,18</t>
+          <t>0,07; 0,17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,34</t>
+          <t>0,16; 0,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,15</t>
+          <t>0,06; 0,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1034,17 +1034,17 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,11</t>
+          <t>0,03; 0,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,16</t>
+          <t>0,08; 0,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,1</t>
+          <t>0,06; 0,1</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,17</t>
+          <t>0,09; 0,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,28</t>
+          <t>0,05; 0,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1174,22 +1174,22 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,17</t>
+          <t>0,08; 0,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,08</t>
+          <t>0,02; 0,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,11</t>
+          <t>0,07; 0,12</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,11</t>
+          <t>0,05; 0,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,3</t>
+          <t>0,05; 0,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,13</t>
+          <t>0,07; 0,14</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,37 +1424,37 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,04; 0,12</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 0,16</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0,09; 0,18</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 0,14</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>0,05; 0,12</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,17</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,18</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,14</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 0,12</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,18</t>
+          <t>0,1; 0,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,15; 0,34</t>
+          <t>0,14; 0,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,15</t>
+          <t>0,1; 0,16</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,17</t>
+          <t>0,11; 0,17</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,11</t>
+          <t>0,05; 0,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,12</t>
+          <t>0,06; 0,11</t>
         </is>
       </c>
     </row>
@@ -1709,12 +1709,12 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,04</t>
+          <t>0,02; 0,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,08</t>
+          <t>0,04; 0,07</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,09</t>
+          <t>0,03; 0,08</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,09</t>
+          <t>0,06; 0,08</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,1</t>
+          <t>0,07; 0,1</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
